--- a/Service.Catalog/wwwroot/layout/excel/branch/BranchListado.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/branch/BranchListado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ReposAxsis\API\Service.Catalog\wwwroot\layout\excel\branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Catalog\wwwroot\layout\excel\branch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A26834-42E7-4945-AD8D-9B5CB116F1DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A78839-7F5A-461F-8131-E213CED52BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sucursales" sheetId="1" r:id="rId1"/>
@@ -81,18 +81,6 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Codigo Postal</t>
-  </si>
-  <si>
-    <t>Localizacion</t>
-  </si>
-  <si>
-    <t>Clinicos</t>
-  </si>
-  <si>
     <t>{{item.clave}}</t>
   </si>
   <si>
@@ -115,6 +103,18 @@
   </si>
   <si>
     <t>{{item.activo}}</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Código Postal</t>
+  </si>
+  <si>
+    <t>Localización</t>
+  </si>
+  <si>
+    <t>Clínicos</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,16 +606,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
@@ -623,28 +623,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
